--- a/notes/SVG_CANVAS.xlsx
+++ b/notes/SVG_CANVAS.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1999228-5EDB-4462-BD6B-1E6AF2A5F99D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A742F43-9AFA-47A1-8BA5-BDF5C28E2346}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1270" windowWidth="21600" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8780" yWindow="630" windowWidth="21600" windowHeight="11330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="canvas" sheetId="1" r:id="rId1"/>
+    <sheet name="shapes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,16 +21,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>https://docs.microsoft.com/en-us/previous-versions/windows/internet-explorer/ie-developer/samples/gg193983(v=vs.85)?redirectedfrom=MSDN</t>
+  </si>
+  <si>
+    <t>shape-outside</t>
+  </si>
+  <si>
+    <t>shape-margin</t>
+  </si>
+  <si>
+    <t>shape-image-threshold</t>
+  </si>
+  <si>
+    <t>shapes布局相关属性</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. shape-outside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>很好理解，表示就是普通的矩形环绕。</t>
+    </r>
+  </si>
+  <si>
+    <t>margin-box，border-box，padding-box,content-box</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>basic-shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指的是基本形状函数，和CSS clip-path剪裁属性支持的基本形状函数一模一样</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">image </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包括URL链接图片，渐变图像，cross-fade()，element()等</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +119,25 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,9 +161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -235,6 +323,220 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D92D775-F981-4B6D-9A7D-B7ECEB982B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593850" y="2489200"/>
+          <a:ext cx="6076950" cy="3930650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>/* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>关键字值 *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>shape-outside: none;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>shape-outside: margin-box;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>shape-outside: content-box;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>shape-outside: border-box;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>shape-outside: padding-box;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>/* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>函数值 *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>shape-outside: circle();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shape-outside: ellipse(150px 300px at 50% 50%);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>shape-outside: inset(10px 10px 10px 10px);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>shape-outside: polygon(10px 10px, 20px 20px, 30px 30px);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>/* &lt;url&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>值 *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>shape-outside: url(image.png);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>/* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>渐变值 *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>shape-outside: linear-gradient(45deg, rgba(255, 255, 255, 0) 150px, red 150px);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -505,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -525,4 +827,67 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F5B322-E7B8-4873-BE7A-D4A5F49453EE}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>